--- a/example_data/EMA/label_corrected/azomyr-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/azomyr-epar-product-information_en.xlsx
@@ -1143,7 +1143,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I254" t="inlineStr"/>
@@ -9317,7 +9317,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I258" t="inlineStr"/>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I282" t="inlineStr"/>
